--- a/LOG.xlsx
+++ b/LOG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>S.no</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Remark</t>
   </si>
   <si>
+    <t>Revision due on</t>
+  </si>
+  <si>
     <t>Load Balancer</t>
   </si>
   <si>
@@ -66,6 +69,12 @@
   </si>
   <si>
     <t>Indexes</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Enums</t>
   </si>
   <si>
     <t>core</t>
@@ -88,11 +97,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -111,24 +120,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,10 +153,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,14 +184,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +199,51 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,72 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,181 +279,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,16 +482,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -500,8 +509,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +562,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -531,51 +579,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,145 +596,145 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,29 +742,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1076,183 +1100,379 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="2"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.2857142857143" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.4285714285714" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="3"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.2857142857143" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.1428571428571" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.4285714285714" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.4285714285714" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>44042</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44042</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44047</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>44048</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" s="14">
+        <v>44057</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7">
+        <f>B6+7</f>
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>44042</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="14">
+        <v>44057</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B8" s="14">
+        <v>44057</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>44047</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B9" s="4">
+        <v>44062</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F9" s="7">
+        <f>B9+7</f>
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44062</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7">
+        <f>B10+7</f>
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>44048</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>44057</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>44057</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>44057</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1263,47 +1483,240 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
